--- a/Controle-de-Estoque-Cafe-Alura-Aula-1-Utilizando-Dados-em-Excel.xlsx
+++ b/Controle-de-Estoque-Cafe-Alura-Aula-1-Utilizando-Dados-em-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque Café Alura" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="Fornecedor" sheetId="3" r:id="rId3"/>
     <sheet name="Entradas" sheetId="4" r:id="rId4"/>
     <sheet name="Saídas" sheetId="5" r:id="rId5"/>
-    <sheet name="Consulta" sheetId="7" r:id="rId6"/>
+    <sheet name="Consulta" sheetId="8" r:id="rId6"/>
+    <sheet name="Controle de Estoque" sheetId="9" r:id="rId7"/>
+    <sheet name="Quadro de Resumo" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="CriteriosConsultaProduto">'Quadro de Resumo'!$AM$6:$AM$7</definedName>
     <definedName name="Lista_Fornecedores">TB_Fornecedores[[#All],[Empresa]]</definedName>
     <definedName name="Lista_Produtos">TB_Produtos[[#All],[Produto]]</definedName>
   </definedNames>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="117">
   <si>
     <t>Controle de Estoque Café Alura</t>
   </si>
@@ -222,70 +225,13 @@
     <t>Preço Unitário</t>
   </si>
   <si>
-    <t>R$ 2,00</t>
-  </si>
-  <si>
-    <t>R$ 6,00</t>
-  </si>
-  <si>
-    <t>R$ 1,50</t>
-  </si>
-  <si>
-    <t>R$ 3,00</t>
-  </si>
-  <si>
-    <t>R$ 0,50</t>
-  </si>
-  <si>
-    <t>R$ 6,50</t>
-  </si>
-  <si>
-    <t>R$ 1,00</t>
-  </si>
-  <si>
-    <t>R$ 4,50</t>
-  </si>
-  <si>
-    <t>R$ 4,00</t>
-  </si>
-  <si>
-    <t>R$ 0,25</t>
-  </si>
-  <si>
-    <t>R$ 8,50</t>
-  </si>
-  <si>
-    <t>R$ 10,00</t>
-  </si>
-  <si>
-    <t>R$ 5,00</t>
-  </si>
-  <si>
     <t>Chantilly</t>
-  </si>
-  <si>
-    <t>R$ 0,75</t>
   </si>
   <si>
     <t>Pão de Queijo</t>
   </si>
   <si>
-    <t>R$ 7,50</t>
-  </si>
-  <si>
     <t>Suco de Laranja</t>
-  </si>
-  <si>
-    <t>R$ 8,00</t>
-  </si>
-  <si>
-    <t>R$ 15,00</t>
-  </si>
-  <si>
-    <t>R$ 2,50</t>
-  </si>
-  <si>
-    <t>R$ 3,50</t>
   </si>
   <si>
     <t>Enroladinho</t>
@@ -368,18 +314,88 @@
   <si>
     <t>Valor da Venda</t>
   </si>
+  <si>
+    <t>Consulta Estoque</t>
+  </si>
+  <si>
+    <t>&lt;10/05/2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade em Estoque </t>
+  </si>
+  <si>
+    <t>Valor de Venda</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saídas </t>
+  </si>
+  <si>
+    <t>Saldo em Estoque</t>
+  </si>
+  <si>
+    <t>Status do Estoque</t>
+  </si>
+  <si>
+    <t>Custo Total</t>
+  </si>
+  <si>
+    <t>Produto Mais Rentável</t>
+  </si>
+  <si>
+    <t>Quadro de Resumo</t>
+  </si>
+  <si>
+    <t>Dados 2022</t>
+  </si>
+  <si>
+    <t>Consulta por Produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produtos Vendidos: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qtd em Estoque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faturamento: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucro: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Lucro: </t>
+  </si>
+  <si>
+    <t>Valores Únicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +504,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +619,74 @@
         <bgColor rgb="FFFEF8E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF051932"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF093364"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -902,11 +1055,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1002,46 +1362,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,16 +1401,549 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="18" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="18" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="41">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9A5F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1110,7 +1963,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1278,129 +2130,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <name val="Calibri"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
@@ -1507,21 +2236,27 @@
   </dxfs>
   <tableStyles count="3">
     <tableStyle name="Produtos-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="Fornecedor-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="Entradas-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFA165E6"/>
+      <color rgb="FFC9A5F1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2308,6 +3043,162 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42242A53-32D7-4CED-BA7E-E2D15FDB03D9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E0DC377-49C3-474B-96CE-C0349F56CB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="19051"/>
+          <a:ext cx="600075" cy="751673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB3F641-7A5E-449D-8002-9649FC5D4F3D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E0DC377-49C3-474B-96CE-C0349F56CB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="9525"/>
+          <a:ext cx="600075" cy="554549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>131222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2B8D1F-99CF-48EB-9AC1-B059AD53F3D6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E0DC377-49C3-474B-96CE-C0349F56CB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123949" y="57152"/>
+          <a:ext cx="485776" cy="474120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TB_Produtos" displayName="TB_Produtos" ref="B4:F31">
   <tableColumns count="5">
@@ -2322,7 +3213,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TB_Fornecedores" displayName="TB_Fornecedores" ref="B5:E9" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TB_Fornecedores" displayName="TB_Fornecedores" ref="B5:E9" totalsRowShown="0" headerRowDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="B5:E9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Empresa"/>
@@ -2335,17 +3226,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TB_Entradas" displayName="TB_Entradas" ref="B5:G31" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Data " dataDxfId="5"/>
-    <tableColumn id="2" name="Produto" dataDxfId="4"/>
-    <tableColumn id="3" name="Fornecedor" dataDxfId="3"/>
-    <tableColumn id="4" name="Quantidade Comprada" dataDxfId="2"/>
-    <tableColumn id="5" name="Custo Unitário" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TB_Entradas" displayName="TB_Entradas" ref="B5:H31" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27">
+  <tableColumns count="7">
+    <tableColumn id="1" name="Data" dataDxfId="26"/>
+    <tableColumn id="2" name="Produto" dataDxfId="25"/>
+    <tableColumn id="3" name="Fornecedor" dataDxfId="24"/>
+    <tableColumn id="4" name="Quantidade Comprada" dataDxfId="23"/>
+    <tableColumn id="5" name="Custo Unitário" dataDxfId="22">
       <calculatedColumnFormula>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Valor da Compra" dataDxfId="1">
+    <tableColumn id="6" name="Valor da Compra" dataDxfId="21">
       <calculatedColumnFormula>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Valores Únicos" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2353,20 +3247,57 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TB_Saídas" displayName="TB_Saídas" ref="B5:F33" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="B5:F33"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Data" dataDxfId="14"/>
-    <tableColumn id="2" name="Produto" dataDxfId="13"/>
-    <tableColumn id="3" name="Quantidade Vendida" dataDxfId="11"/>
-    <tableColumn id="4" name="Preço Unitário" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TB_Saídas" displayName="TB_Saídas" ref="B5:G33" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="B5:G33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Data" dataDxfId="19"/>
+    <tableColumn id="2" name="Produto" dataDxfId="18"/>
+    <tableColumn id="3" name="Quantidade Vendida" dataDxfId="17"/>
+    <tableColumn id="4" name="Preço Unitário" dataDxfId="16">
       <calculatedColumnFormula>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Valor da Venda" dataDxfId="9">
+    <tableColumn id="5" name="Valor da Venda" dataDxfId="15">
       <calculatedColumnFormula>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Valores Únicos" dataDxfId="5">
+      <calculatedColumnFormula>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TB_ControleEstoque" displayName="TB_ControleEstoque" ref="B5:J17" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="B5:J17"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Produto"/>
+    <tableColumn id="2" name="Entradas" dataDxfId="13">
+      <calculatedColumnFormula>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Saídas " dataDxfId="12">
+      <calculatedColumnFormula>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Saldo em Estoque" dataDxfId="11">
+      <calculatedColumnFormula>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Estoque Mínimo" dataDxfId="10">
+      <calculatedColumnFormula>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status do Estoque" dataDxfId="9">
+      <calculatedColumnFormula>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Valor de Venda" dataDxfId="8">
+      <calculatedColumnFormula>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Custo Total" dataDxfId="7">
+      <calculatedColumnFormula>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Lucro" dataDxfId="6">
+      <calculatedColumnFormula>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2600,31 +3531,31 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2636,18 +3567,18 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="60"/>
+      <c r="P3" s="110"/>
       <c r="Q3" s="2">
         <v>1132554029</v>
       </c>
@@ -2664,19 +3595,19 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="60"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="2">
         <v>1140082010</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25" customHeight="1">
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="60"/>
+      <c r="P5" s="110"/>
       <c r="Q5" s="2">
         <v>1155286957</v>
       </c>
@@ -2685,19 +3616,19 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="124" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -2718,13 +3649,13 @@
       <c r="L6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="60"/>
+      <c r="P6" s="110"/>
       <c r="Q6" s="2">
         <v>1162253698</v>
       </c>
@@ -2733,13 +3664,13 @@
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +3689,7 @@
       <c r="L7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="125"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2773,7 +3704,7 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="129" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="9">
@@ -2821,7 +3752,7 @@
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="9">
         <v>35</v>
       </c>
@@ -2867,7 +3798,7 @@
       <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="9">
         <v>15</v>
       </c>
@@ -2910,7 +3841,7 @@
       <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="130"/>
       <c r="E11" s="9">
         <v>24</v>
       </c>
@@ -2953,7 +3884,7 @@
       <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="9">
         <v>8</v>
       </c>
@@ -2996,7 +3927,7 @@
       <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="9">
         <v>50</v>
       </c>
@@ -3039,7 +3970,7 @@
       <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="9">
         <v>100</v>
       </c>
@@ -3082,7 +4013,7 @@
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="9">
         <v>5</v>
       </c>
@@ -3125,7 +4056,7 @@
       <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="9">
         <v>5</v>
       </c>
@@ -3168,7 +4099,7 @@
       <c r="C17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="130"/>
       <c r="E17" s="9">
         <v>5</v>
       </c>
@@ -3211,7 +4142,7 @@
       <c r="C18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="9">
         <v>5</v>
       </c>
@@ -3254,7 +4185,7 @@
       <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="9">
         <v>15</v>
       </c>
@@ -3297,7 +4228,7 @@
       <c r="C20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="9">
         <v>100</v>
       </c>
@@ -3340,7 +4271,7 @@
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="65"/>
+      <c r="D21" s="131"/>
       <c r="E21" s="9">
         <v>10</v>
       </c>
@@ -3375,11 +4306,11 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="14">
         <f t="shared" ref="E22:G22" si="5">SUM(E8:E21)</f>
         <v>477</v>
@@ -3421,7 +4352,7 @@
       <c r="C23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="129" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="9">
@@ -3466,7 +4397,7 @@
       <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="9">
         <v>100</v>
       </c>
@@ -3509,7 +4440,7 @@
       <c r="C25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="130"/>
       <c r="E25" s="9">
         <v>100</v>
       </c>
@@ -3552,7 +4483,7 @@
       <c r="C26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="9">
         <v>100</v>
       </c>
@@ -3595,7 +4526,7 @@
       <c r="C27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="9">
         <v>100</v>
       </c>
@@ -3638,7 +4569,7 @@
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="130"/>
       <c r="E28" s="9">
         <v>100</v>
       </c>
@@ -3681,7 +4612,7 @@
       <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="131"/>
       <c r="E29" s="9">
         <v>40</v>
       </c>
@@ -3716,11 +4647,11 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="14">
         <f>SUM(E23:E29)</f>
         <v>550</v>
@@ -3762,7 +4693,7 @@
       <c r="C31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="129" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="9">
@@ -3807,7 +4738,7 @@
       <c r="C32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="64"/>
+      <c r="D32" s="130"/>
       <c r="E32" s="9">
         <v>20</v>
       </c>
@@ -3850,7 +4781,7 @@
       <c r="C33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="64"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="9">
         <v>15</v>
       </c>
@@ -3893,7 +4824,7 @@
       <c r="C34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="9">
         <v>15</v>
       </c>
@@ -3928,11 +4859,11 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="13"/>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134"/>
       <c r="E35" s="14">
         <f t="shared" ref="E35:F35" si="18">SUM(E31:E34)</f>
         <v>65</v>
@@ -3974,7 +4905,7 @@
       <c r="C36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="129" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="9">
@@ -4019,7 +4950,7 @@
       <c r="C37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="131"/>
       <c r="E37" s="9">
         <v>6</v>
       </c>
@@ -4054,11 +4985,11 @@
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1">
       <c r="A38" s="19"/>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
       <c r="E38" s="20">
         <f>SUM(E36:E37)</f>
         <v>12</v>
@@ -4106,11 +5037,11 @@
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1">
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="128"/>
       <c r="E40" s="30">
         <f t="shared" ref="E40:G40" si="27">SUM(E22,E35,E38)</f>
         <v>554</v>
@@ -5133,10 +6064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z891"/>
+  <dimension ref="A1:T891"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5149,10 +6080,10 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="26" width="8" customWidth="1"/>
+    <col min="9" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" customHeight="1">
+    <row r="1" spans="1:20" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="35" t="s">
@@ -5175,14 +6106,8 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="6" customHeight="1">
+    </row>
+    <row r="2" spans="1:20" ht="6" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5203,17 +6128,11 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:20" ht="14.25" customHeight="1">
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" spans="1:20" ht="14.25" customHeight="1">
       <c r="B4" s="38" t="s">
         <v>6</v>
       </c>
@@ -5230,26 +6149,26 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" spans="1:20" ht="14.25" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D5" s="40">
         <v>50</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>65</v>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>6</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
       <c r="B6" s="39" t="s">
         <v>41</v>
       </c>
@@ -5259,15 +6178,15 @@
       <c r="D6" s="40">
         <v>5</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>67</v>
+      <c r="E6" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="42">
+        <v>3</v>
       </c>
       <c r="H6" s="43"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="B7" s="39" t="s">
         <v>42</v>
       </c>
@@ -5277,15 +6196,15 @@
       <c r="D7" s="40">
         <v>50</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>69</v>
+      <c r="E7" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42">
+        <v>6.5</v>
       </c>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" spans="1:20" ht="14.25" customHeight="1">
       <c r="B8" s="39" t="s">
         <v>43</v>
       </c>
@@ -5295,15 +6214,15 @@
       <c r="D8" s="40">
         <v>50</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>71</v>
+      <c r="E8" s="41">
+        <v>1</v>
+      </c>
+      <c r="F8" s="42">
+        <v>4.5</v>
       </c>
       <c r="H8" s="43"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
       <c r="B9" s="39" t="s">
         <v>44</v>
       </c>
@@ -5313,15 +6232,15 @@
       <c r="D9" s="40">
         <v>50</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>72</v>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>4</v>
       </c>
       <c r="H9" s="43"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="B10" s="39" t="s">
         <v>45</v>
       </c>
@@ -5331,14 +6250,14 @@
       <c r="D10" s="40">
         <v>50</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="B11" s="39" t="s">
         <v>46</v>
       </c>
@@ -5348,14 +6267,14 @@
       <c r="D11" s="40">
         <v>50</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
       <c r="B12" s="39" t="s">
         <v>27</v>
       </c>
@@ -5365,14 +6284,14 @@
       <c r="D12" s="40">
         <v>15</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E12" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>28</v>
       </c>
@@ -5382,14 +6301,14 @@
       <c r="D13" s="40">
         <v>15</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E13" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1">
       <c r="B14" s="39" t="s">
         <v>38</v>
       </c>
@@ -5399,14 +6318,14 @@
       <c r="D14" s="40">
         <v>15</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E14" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.25" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>39</v>
       </c>
@@ -5416,14 +6335,14 @@
       <c r="D15" s="40">
         <v>10</v>
       </c>
-      <c r="E15" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="E15" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="42">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.25" customHeight="1">
       <c r="B16" s="39" t="s">
         <v>29</v>
       </c>
@@ -5433,11 +6352,11 @@
       <c r="D16" s="40">
         <v>12</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>76</v>
+      <c r="E16" s="41">
+        <v>10</v>
+      </c>
+      <c r="F16" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.25" customHeight="1">
@@ -5450,11 +6369,11 @@
       <c r="D17" s="40">
         <v>4</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>64</v>
+      <c r="E17" s="41">
+        <v>2</v>
+      </c>
+      <c r="F17" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.25" customHeight="1">
@@ -5467,16 +6386,16 @@
       <c r="D18" s="40">
         <v>10</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>76</v>
+      <c r="E18" s="41">
+        <v>1</v>
+      </c>
+      <c r="F18" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.25" customHeight="1">
       <c r="B19" s="39" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>26</v>
@@ -5484,16 +6403,16 @@
       <c r="D19" s="40">
         <v>2</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>66</v>
+      <c r="E19" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="42">
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="14.25" customHeight="1">
       <c r="B20" s="39" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>32</v>
@@ -5501,16 +6420,16 @@
       <c r="D20" s="40">
         <v>10</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>80</v>
+      <c r="E20" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="42">
+        <v>7.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="14.25" customHeight="1">
       <c r="B21" s="39" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>26</v>
@@ -5518,11 +6437,11 @@
       <c r="D21" s="40">
         <v>5</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>75</v>
+      <c r="E21" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="42">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="14.25" customHeight="1">
@@ -5535,11 +6454,11 @@
       <c r="D22" s="40">
         <v>2</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>83</v>
+      <c r="E22" s="41">
+        <v>8</v>
+      </c>
+      <c r="F22" s="42">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="14.25" customHeight="1">
@@ -5552,11 +6471,11 @@
       <c r="D23" s="40">
         <v>2</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>83</v>
+      <c r="E23" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="F23" s="42">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="14.25" customHeight="1">
@@ -5569,11 +6488,11 @@
       <c r="D24" s="40">
         <v>5</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>64</v>
+      <c r="E24" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="14.25" customHeight="1">
@@ -5586,11 +6505,11 @@
       <c r="D25" s="40">
         <v>5</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>82</v>
+      <c r="E25" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="14.25" customHeight="1">
@@ -5603,11 +6522,11 @@
       <c r="D26" s="40">
         <v>2</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>67</v>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="14.25" customHeight="1">
@@ -5620,11 +6539,11 @@
       <c r="D27" s="40">
         <v>2</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>85</v>
+      <c r="E27" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="F27" s="42">
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="14.25" customHeight="1">
@@ -5637,11 +6556,11 @@
       <c r="D28" s="40">
         <v>2</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>67</v>
+      <c r="E28" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="14.25" customHeight="1">
@@ -5654,11 +6573,11 @@
       <c r="D29" s="40">
         <v>2</v>
       </c>
-      <c r="E29" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>71</v>
+      <c r="E29" s="41">
+        <v>3</v>
+      </c>
+      <c r="F29" s="42">
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.25" customHeight="1">
@@ -5671,16 +6590,16 @@
       <c r="D30" s="40">
         <v>10</v>
       </c>
-      <c r="E30" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>82</v>
+      <c r="E30" s="41">
+        <v>2</v>
+      </c>
+      <c r="F30" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="14.25" customHeight="1">
       <c r="B31" s="39" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>32</v>
@@ -5688,11 +6607,11 @@
       <c r="D31" s="40">
         <v>10</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>76</v>
+      <c r="E31" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="14.25" customHeight="1">
@@ -8313,7 +9232,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="35" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -8370,76 +9289,76 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B5" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>91</v>
+      <c r="B5" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>94</v>
+      <c r="C6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>97</v>
+      <c r="C7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B8" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>101</v>
+      <c r="B8" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>105</v>
+      <c r="C9" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -9305,8 +10224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9318,14 +10237,15 @@
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="26" width="8" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="45"/>
       <c r="C1" s="46" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="45"/>
@@ -9390,28 +10310,30 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="48"/>
-      <c r="B5" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="89" t="s">
+      <c r="E5" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="48"/>
+      <c r="G5" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="181" t="s">
+        <v>115</v>
+      </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="82"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
@@ -9429,578 +10351,682 @@
       <c r="Z5" s="48"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="88">
+      <c r="B6" s="62">
         <v>44566</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="60">
         <v>400</v>
       </c>
-      <c r="F6" s="90" t="str">
+      <c r="F6" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G6" s="94">
+        <v>2</v>
+      </c>
+      <c r="G6" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>800</v>
       </c>
+      <c r="H6" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Café</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B7" s="88">
+      <c r="B7" s="62">
         <v>44566</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="60">
         <v>500</v>
       </c>
-      <c r="F7" s="90" t="str">
+      <c r="F7" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,50</v>
-      </c>
-      <c r="G7" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>250</v>
       </c>
+      <c r="H7" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Coxinha</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B8" s="88">
+      <c r="B8" s="62">
         <v>44593</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="60">
         <v>550</v>
       </c>
-      <c r="F8" s="90" t="str">
+      <c r="F8" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 1,00</v>
-      </c>
-      <c r="G8" s="94">
+        <v>1</v>
+      </c>
+      <c r="G8" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>550</v>
       </c>
+      <c r="H8" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Esfiha</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="88">
+      <c r="B9" s="62">
         <v>44594</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="86" t="s">
+      <c r="C9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="60">
         <v>300</v>
       </c>
-      <c r="F9" s="90" t="str">
+      <c r="F9" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,25</v>
-      </c>
-      <c r="G9" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>75</v>
       </c>
+      <c r="H9" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Enroladinho</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="88">
+      <c r="B10" s="62">
         <v>44598</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="60">
         <v>200</v>
       </c>
-      <c r="F10" s="90" t="str">
+      <c r="F10" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G10" s="94">
+        <v>2</v>
+      </c>
+      <c r="G10" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>400</v>
       </c>
+      <c r="H10" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B11" s="88">
+      <c r="B11" s="62">
         <v>44625</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="86">
+      <c r="D11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="60">
         <v>600</v>
       </c>
-      <c r="F11" s="90" t="str">
+      <c r="F11" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G11" s="94">
+        <v>2</v>
+      </c>
+      <c r="G11" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>1200</v>
       </c>
+      <c r="H11" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Refrigerante</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B12" s="88">
+      <c r="B12" s="62">
         <v>44630</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="60">
         <v>200</v>
       </c>
-      <c r="F12" s="90" t="str">
+      <c r="F12" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 10,00</v>
-      </c>
-      <c r="G12" s="94">
+        <v>10</v>
+      </c>
+      <c r="G12" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>2000</v>
       </c>
+      <c r="H12" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Leite</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B13" s="88">
+      <c r="B13" s="62">
         <v>44635</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="60">
         <v>300</v>
       </c>
-      <c r="F13" s="90" t="str">
+      <c r="F13" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G13" s="94">
+        <v>2</v>
+      </c>
+      <c r="G13" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>600</v>
       </c>
+      <c r="H13" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B14" s="88">
+      <c r="B14" s="62">
         <v>44655</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="86">
+      <c r="D14" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="60">
         <v>800</v>
       </c>
-      <c r="F14" s="90" t="str">
+      <c r="F14" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,75</v>
-      </c>
-      <c r="G14" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>600</v>
       </c>
+      <c r="H14" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Cerveja</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B15" s="88">
+      <c r="B15" s="62">
         <v>44661</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="60">
         <v>700</v>
       </c>
-      <c r="F15" s="90" t="str">
+      <c r="F15" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G15" s="94">
+        <v>2</v>
+      </c>
+      <c r="G15" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>1400</v>
       </c>
+      <c r="H15" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B16" s="88">
+      <c r="B16" s="62">
         <v>44686</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="60">
         <v>400</v>
       </c>
-      <c r="F16" s="90" t="str">
+      <c r="F16" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,00</v>
-      </c>
-      <c r="G16" s="94">
+        <v>8</v>
+      </c>
+      <c r="G16" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>3200</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B17" s="88">
+      <c r="H16" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Hamburguer</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B17" s="62">
         <v>44691</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="60">
         <v>500</v>
       </c>
-      <c r="F17" s="90" t="str">
+      <c r="F17" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 1,00</v>
-      </c>
-      <c r="G17" s="94">
+        <v>1</v>
+      </c>
+      <c r="G17" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B18" s="88">
+      <c r="H17" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Empada</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B18" s="62">
         <v>44691</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="60">
         <v>100</v>
       </c>
-      <c r="F18" s="90" t="str">
+      <c r="F18" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G18" s="94">
+        <v>2</v>
+      </c>
+      <c r="G18" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B19" s="88">
+      <c r="H18" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B19" s="62">
         <v>44714</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="60">
         <v>150</v>
       </c>
-      <c r="F19" s="90" t="str">
+      <c r="F19" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G19" s="94">
+        <v>2</v>
+      </c>
+      <c r="G19" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B20" s="88">
+      <c r="H19" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B20" s="62">
         <v>44719</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="60">
         <v>350</v>
       </c>
-      <c r="F20" s="90" t="str">
+      <c r="F20" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,25</v>
-      </c>
-      <c r="G20" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B21" s="88">
+      <c r="H20" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Chocolate</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B21" s="62">
         <v>44743</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="60">
         <v>400</v>
       </c>
-      <c r="F21" s="90" t="str">
+      <c r="F21" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G21" s="94">
+        <v>2</v>
+      </c>
+      <c r="G21" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B22" s="88">
+      <c r="H21" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B22" s="62">
         <v>44747</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="86">
+      <c r="C22" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="60">
         <v>450</v>
       </c>
-      <c r="F22" s="90" t="str">
+      <c r="F22" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,75</v>
-      </c>
-      <c r="G22" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>337.5</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B23" s="88">
+      <c r="H22" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Suco de Laranja</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B23" s="62">
         <v>44783</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="60">
         <v>350</v>
       </c>
-      <c r="F23" s="90" t="str">
+      <c r="F23" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 1,00</v>
-      </c>
-      <c r="G23" s="94">
+        <v>1</v>
+      </c>
+      <c r="G23" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B24" s="88">
+      <c r="H23" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Mini Pizza</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B24" s="62">
         <v>44794</v>
       </c>
-      <c r="C24" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="86" t="s">
+      <c r="C24" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="60">
         <v>300</v>
       </c>
-      <c r="F24" s="90" t="str">
+      <c r="F24" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,25</v>
-      </c>
-      <c r="G24" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B25" s="88">
+      <c r="H24" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Pão de Queijo</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B25" s="62">
         <v>44804</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="60">
         <v>400</v>
       </c>
-      <c r="F25" s="90" t="str">
+      <c r="F25" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G25" s="94">
+        <v>2</v>
+      </c>
+      <c r="G25" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B26" s="88">
+      <c r="H25" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B26" s="62">
         <v>44806</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="86">
+      <c r="D26" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="60">
         <v>550</v>
       </c>
-      <c r="F26" s="90" t="str">
+      <c r="F26" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G26" s="94">
+        <v>2</v>
+      </c>
+      <c r="G26" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>1100</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B27" s="88">
+      <c r="H26" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B27" s="62">
         <v>44821</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="60">
         <v>100</v>
       </c>
-      <c r="F27" s="90" t="str">
+      <c r="F27" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 4,50</v>
-      </c>
-      <c r="G27" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="G27" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B28" s="88">
+      <c r="H27" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Frango</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B28" s="62">
         <v>44834</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="60">
         <v>100</v>
       </c>
-      <c r="F28" s="90" t="str">
+      <c r="F28" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G28" s="94">
+        <v>2</v>
+      </c>
+      <c r="G28" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B29" s="88">
+      <c r="H28" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B29" s="62">
         <v>44854</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="60">
         <v>400</v>
       </c>
-      <c r="F29" s="90" t="str">
+      <c r="F29" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 2,00</v>
-      </c>
-      <c r="G29" s="94">
+        <v>2</v>
+      </c>
+      <c r="G29" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B30" s="88">
+      <c r="H29" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B30" s="62">
         <v>44874</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="86">
+      <c r="D30" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="60">
         <v>150</v>
       </c>
-      <c r="F30" s="90" t="str">
+      <c r="F30" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,75</v>
-      </c>
-      <c r="G30" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="G30" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>112.5</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B31" s="88">
+      <c r="H30" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v>Água</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B31" s="62">
         <v>44883</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="86">
+      <c r="D31" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="60">
         <v>400</v>
       </c>
-      <c r="F31" s="90" t="str">
+      <c r="F31" s="64">
         <f>INDEX(TB_Produtos[Custo Unitário],MATCH(TB_Entradas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 0,75</v>
-      </c>
-      <c r="G31" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="G31" s="67">
         <f>IFERROR(TB_Entradas[[#This Row],[Quantidade Comprada]]*TB_Entradas[[#This Row],[Custo Unitário]],"Erro no cálculo do valor da compra")</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1">
+      <c r="H31" s="180" t="str">
+        <f>IF(MATCH(TB_Entradas[[#This Row],[Produto]],TB_Entradas[Produto],0)=(ROW(TB_Entradas[[#This Row],[Produto]])-ROW(TB_Entradas[[#Headers],[Produto]])),TB_Entradas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="14.25" customHeight="1">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="E32" s="47"/>
@@ -14852,10 +15878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14866,14 +15892,15 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="8" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" customHeight="1">
+    <row r="1" spans="1:15" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -14887,19 +15914,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="6" customHeight="1">
+    </row>
+    <row r="2" spans="1:15" ht="6" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -14915,583 +15931,687 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="B5" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="83" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:15" ht="15" customHeight="1">
+      <c r="B5" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="91" t="s">
+      <c r="D5" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B6" s="84">
+      <c r="F5" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="173" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B6" s="58">
         <v>44566</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="60">
         <v>150</v>
       </c>
-      <c r="E6" s="92" t="str">
+      <c r="E6" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,50</v>
-      </c>
-      <c r="F6" s="93">
+        <v>6.5</v>
+      </c>
+      <c r="F6" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>975</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B7" s="84">
+      <c r="G6" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Coxinha</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B7" s="58">
         <v>44567</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="60">
         <v>200</v>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F7" s="93">
+        <v>6</v>
+      </c>
+      <c r="F7" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B8" s="84">
+      <c r="G7" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Café</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B8" s="58">
         <v>44597</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="60">
         <v>325</v>
       </c>
-      <c r="E8" s="92" t="str">
+      <c r="E8" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 4,50</v>
-      </c>
-      <c r="F8" s="93">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1462.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B9" s="84">
+      <c r="G8" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Esfiha</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B9" s="58">
         <v>44598</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="86">
+      <c r="C9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="60">
         <v>250</v>
       </c>
-      <c r="E9" s="92" t="str">
+      <c r="E9" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 5,00</v>
-      </c>
-      <c r="F9" s="93">
+        <v>5</v>
+      </c>
+      <c r="F9" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1250</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="84">
+      <c r="G9" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Enroladinho</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B10" s="58">
         <v>44626</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="60">
         <v>400</v>
       </c>
-      <c r="E10" s="92" t="str">
+      <c r="E10" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,00</v>
-      </c>
-      <c r="F10" s="93">
+        <v>8</v>
+      </c>
+      <c r="F10" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>3200</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B11" s="84">
+      <c r="G10" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Refrigerante</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B11" s="58">
         <v>44630</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="60">
         <v>50</v>
       </c>
-      <c r="E11" s="92" t="str">
+      <c r="E11" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F11" s="93">
+        <v>6</v>
+      </c>
+      <c r="F11" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B12" s="84">
+      <c r="G11" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B12" s="58">
         <v>44659</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="60">
         <v>100</v>
       </c>
-      <c r="E12" s="92" t="str">
+      <c r="E12" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,50</v>
-      </c>
-      <c r="F12" s="93">
+        <v>6.5</v>
+      </c>
+      <c r="F12" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>650</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B13" s="84">
+      <c r="G12" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B13" s="58">
         <v>44663</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="60">
         <v>200</v>
       </c>
-      <c r="E13" s="92" t="str">
+      <c r="E13" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F13" s="93">
+        <v>6</v>
+      </c>
+      <c r="F13" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B14" s="84">
+      <c r="G13" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B14" s="58">
         <v>44667</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="60">
         <v>250</v>
       </c>
-      <c r="E14" s="92" t="str">
+      <c r="E14" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,00</v>
-      </c>
-      <c r="F14" s="93">
+        <v>8</v>
+      </c>
+      <c r="F14" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B15" s="84">
+      <c r="G14" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Cerveja</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B15" s="58">
         <v>44691</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="60">
         <v>200</v>
       </c>
-      <c r="E15" s="92" t="str">
+      <c r="E15" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,50</v>
-      </c>
-      <c r="F15" s="93">
+        <v>6.5</v>
+      </c>
+      <c r="F15" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B16" s="84">
+      <c r="G15" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1">
+      <c r="B16" s="58">
         <v>44691</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="60">
         <v>175</v>
       </c>
-      <c r="E16" s="92" t="str">
+      <c r="E16" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 4,50</v>
-      </c>
-      <c r="F16" s="93">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>787.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B17" s="84">
+      <c r="G16" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B17" s="58">
         <v>44692</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="60">
         <v>150</v>
       </c>
-      <c r="E17" s="92" t="str">
+      <c r="E17" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 15,00</v>
-      </c>
-      <c r="F17" s="93">
+        <v>15</v>
+      </c>
+      <c r="F17" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>2250</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B18" s="84">
+      <c r="G17" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Hamburguer</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B18" s="58">
         <v>44692</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="60">
         <v>350</v>
       </c>
-      <c r="E18" s="92" t="str">
+      <c r="E18" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F18" s="93">
+        <v>6</v>
+      </c>
+      <c r="F18" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>2100</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B19" s="84">
+      <c r="G18" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B19" s="58">
         <v>44737</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="60">
         <v>150</v>
       </c>
-      <c r="E19" s="92" t="str">
+      <c r="E19" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,50</v>
-      </c>
-      <c r="F19" s="93">
+        <v>8.5</v>
+      </c>
+      <c r="F19" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1275</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B20" s="84">
+      <c r="G19" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Chocolate</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B20" s="58">
         <v>44749</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="86">
+      <c r="C20" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="60">
         <v>225</v>
       </c>
-      <c r="E20" s="92" t="str">
+      <c r="E20" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 10,00</v>
-      </c>
-      <c r="F20" s="93">
+        <v>10</v>
+      </c>
+      <c r="F20" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>2250</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B21" s="84">
+      <c r="G20" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Suco de Laranja</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B21" s="58">
         <v>44749</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="60">
         <v>375</v>
       </c>
-      <c r="E21" s="92" t="str">
+      <c r="E21" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F21" s="93">
+        <v>6</v>
+      </c>
+      <c r="F21" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>2250</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B22" s="84">
+      <c r="G21" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B22" s="58">
         <v>44803</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="60">
         <v>150</v>
       </c>
-      <c r="E22" s="92" t="str">
+      <c r="E22" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 5,00</v>
-      </c>
-      <c r="F22" s="93">
+        <v>5</v>
+      </c>
+      <c r="F22" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B23" s="84">
+      <c r="G22" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Mini Pizza</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B23" s="58">
         <v>44803</v>
       </c>
-      <c r="C23" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="86">
+      <c r="C23" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="60">
         <v>245</v>
       </c>
-      <c r="E23" s="92" t="str">
+      <c r="E23" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 7,50</v>
-      </c>
-      <c r="F23" s="93">
+        <v>7.5</v>
+      </c>
+      <c r="F23" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1837.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B24" s="84">
+      <c r="G23" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Pão de Queijo</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B24" s="58">
         <v>44811</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="86">
+      <c r="D24" s="60">
         <v>248</v>
       </c>
-      <c r="E24" s="92" t="str">
+      <c r="E24" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,00</v>
-      </c>
-      <c r="F24" s="93">
+        <v>8</v>
+      </c>
+      <c r="F24" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1984</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B25" s="84">
+      <c r="G24" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B25" s="58">
         <v>44811</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="86">
+      <c r="D25" s="60">
         <v>75</v>
       </c>
-      <c r="E25" s="92" t="str">
+      <c r="E25" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F25" s="93">
+        <v>6</v>
+      </c>
+      <c r="F25" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B26" s="84">
+      <c r="G25" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B26" s="58">
         <v>44823</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="86">
+      <c r="D26" s="60">
         <v>35</v>
       </c>
-      <c r="E26" s="92" t="str">
+      <c r="E26" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 15,00</v>
-      </c>
-      <c r="F26" s="93">
+        <v>15</v>
+      </c>
+      <c r="F26" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>525</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B27" s="84">
+      <c r="G26" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v>Frango</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B27" s="58">
         <v>44847</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="60">
         <v>85</v>
       </c>
-      <c r="E27" s="92" t="str">
+      <c r="E27" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 15,00</v>
-      </c>
-      <c r="F27" s="93">
+        <v>15</v>
+      </c>
+      <c r="F27" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>1275</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B28" s="84">
+      <c r="G27" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B28" s="58">
         <v>44865</v>
       </c>
-      <c r="C28" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="86">
+      <c r="C28" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="60">
         <v>75</v>
       </c>
-      <c r="E28" s="92" t="str">
+      <c r="E28" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 10,00</v>
-      </c>
-      <c r="F28" s="93">
+        <v>10</v>
+      </c>
+      <c r="F28" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B29" s="84">
+      <c r="G28" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B29" s="58">
         <v>44866</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="86">
+      <c r="D29" s="60">
         <v>155</v>
       </c>
-      <c r="E29" s="92" t="str">
+      <c r="E29" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F29" s="93">
+        <v>6</v>
+      </c>
+      <c r="F29" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>930</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B30" s="84">
+      <c r="G29" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B30" s="58">
         <v>44869</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="86">
+      <c r="D30" s="60">
         <v>50</v>
       </c>
-      <c r="E30" s="92" t="str">
+      <c r="E30" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,50</v>
-      </c>
-      <c r="F30" s="93">
+        <v>6.5</v>
+      </c>
+      <c r="F30" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B31" s="84">
+      <c r="G30" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B31" s="58">
         <v>44872</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="86">
+      <c r="D31" s="60">
         <v>100</v>
       </c>
-      <c r="E31" s="92" t="str">
+      <c r="E31" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F31" s="93">
+        <v>6</v>
+      </c>
+      <c r="F31" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B32" s="84">
+      <c r="G31" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B32" s="58">
         <v>44886</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="60">
         <v>695</v>
       </c>
-      <c r="E32" s="92" t="str">
+      <c r="E32" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 8,00</v>
-      </c>
-      <c r="F32" s="93">
+        <v>8</v>
+      </c>
+      <c r="F32" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>5560</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="84">
+      <c r="G32" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1">
+      <c r="B33" s="58">
         <v>44888</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D33" s="60">
         <v>86</v>
       </c>
-      <c r="E33" s="92" t="str">
+      <c r="E33" s="66">
         <f>INDEX(TB_Produtos[Preço Unitário],MATCH(TB_Saídas[[#This Row],[Produto]],TB_Produtos[Produto],0))</f>
-        <v>R$ 6,00</v>
-      </c>
-      <c r="F33" s="93">
+        <v>6</v>
+      </c>
+      <c r="F33" s="66">
         <f>TB_Saídas[[#This Row],[Quantidade Vendida]]*TB_Saídas[[#This Row],[Preço Unitário]]</f>
         <v>516</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="35" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="36" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="37" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="38" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="39" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="40" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="41" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="42" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="43" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="44" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="45" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="46" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="47" spans="2:6" ht="14.25" customHeight="1"/>
-    <row r="48" spans="2:6" ht="14.25" customHeight="1"/>
+      <c r="G33" t="str">
+        <f>IF(MATCH(TB_Saídas[[#This Row],[Produto]],TB_Saídas[Produto],0)=(ROW(TB_Saídas[[#This Row],[Produto]])-ROW(TB_Saídas[[#Headers],[Produto]])),TB_Saídas[[#This Row],[Produto]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="35" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="36" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="37" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="38" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="39" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="40" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="41" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="42" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="43" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="44" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="45" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="46" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="47" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="48" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -16452,14 +17572,1849 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="71" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="71" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="68" customFormat="1" ht="60" customHeight="1">
+      <c r="F1" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="70" customFormat="1" ht="6" customHeight="1"/>
+    <row r="3" spans="2:10">
+      <c r="C3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="2:10" ht="30" customHeight="1">
+      <c r="B5" s="75"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="2:10" s="80" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B6" s="75"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79" t="str">
+        <f>"=Café"</f>
+        <v>=Café</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+    </row>
+    <row r="7" spans="2:10" s="80" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="75"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="73"/>
+    </row>
+    <row r="8" spans="2:10" ht="30" customHeight="1">
+      <c r="B8" s="75"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86">
+        <f>DSUM(TB_Saídas[#All],D8,D5:F6)</f>
+        <v>450</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1">
+      <c r="B9" s="75"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+    </row>
+    <row r="10" spans="2:10" ht="30" customHeight="1">
+      <c r="B10" s="75"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86">
+        <f>DSUM(TB_Entradas[#All],"Quantidade Comprada",Consulta!D5:F6)-DSUM(TB_Saídas[#All],"Quantidade Vendida",Consulta!D5:F6)</f>
+        <v>1150</v>
+      </c>
+      <c r="G10" s="84"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1">
+      <c r="B11" s="75"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="84"/>
+    </row>
+    <row r="12" spans="2:10" ht="30" customHeight="1">
+      <c r="B12" s="75"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="87">
+        <f>DSUM(TB_Entradas[#All],Consulta!D12,Consulta!D5:F6)</f>
+        <v>3200</v>
+      </c>
+      <c r="G12" s="84"/>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1">
+      <c r="B13" s="75"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="84"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1">
+      <c r="B14" s="75"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="87">
+        <f>DSUM(TB_Saídas[#All],Consulta!D14,Consulta!D5:F6)</f>
+        <v>2700</v>
+      </c>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="75"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="71" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="71" customWidth="1"/>
+    <col min="3" max="10" width="13.42578125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="2" style="71" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="71"/>
+    <col min="17" max="17" width="2.28515625" style="71" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" s="68" customFormat="1" ht="31.5">
+      <c r="E1" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" s="70" customFormat="1"/>
+    <row r="5" spans="2:17" s="92" customFormat="1" ht="37.5">
+      <c r="B5" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>1150</v>
+      </c>
+      <c r="D6" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>648</v>
+      </c>
+      <c r="E6" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>502</v>
+      </c>
+      <c r="F6" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H6" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>5184</v>
+      </c>
+      <c r="I6" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>2300</v>
+      </c>
+      <c r="J6" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>2884</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75">
+      <c r="B7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>550</v>
+      </c>
+      <c r="D7" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>50</v>
+      </c>
+      <c r="F7" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>50</v>
+      </c>
+      <c r="G7" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Repor Estoque</v>
+      </c>
+      <c r="H7" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>2250</v>
+      </c>
+      <c r="I7" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>550</v>
+      </c>
+      <c r="J7" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>1700</v>
+      </c>
+      <c r="L7" s="97"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="96"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>3150</v>
+      </c>
+      <c r="D8" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>1591</v>
+      </c>
+      <c r="E8" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>1559</v>
+      </c>
+      <c r="F8" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>50</v>
+      </c>
+      <c r="G8" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H8" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>9546</v>
+      </c>
+      <c r="I8" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>6300</v>
+      </c>
+      <c r="J8" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>3246</v>
+      </c>
+      <c r="L8" s="97"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="96"/>
+      <c r="P8" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="96"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>450</v>
+      </c>
+      <c r="D9" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>300</v>
+      </c>
+      <c r="E9" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>150</v>
+      </c>
+      <c r="F9" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H9" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>3000</v>
+      </c>
+      <c r="I9" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>337.5</v>
+      </c>
+      <c r="J9" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>2662.5</v>
+      </c>
+      <c r="L9" s="97"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="136">
+        <f>LARGE(TB_ControleEstoque[Lucro],1)</f>
+        <v>6660</v>
+      </c>
+      <c r="O9" s="96"/>
+      <c r="P9" s="138" t="str">
+        <f>DGET(TB_ControleEstoque[#All],TB_ControleEstoque[[#Headers],[Produto]],N8:N9)</f>
+        <v>Cerveja</v>
+      </c>
+      <c r="Q9" s="96"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>300</v>
+      </c>
+      <c r="D10" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>250</v>
+      </c>
+      <c r="E10" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>50</v>
+      </c>
+      <c r="F10" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H10" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>1250</v>
+      </c>
+      <c r="I10" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>75</v>
+      </c>
+      <c r="J10" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>1175</v>
+      </c>
+      <c r="L10" s="97"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="96"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>1200</v>
+      </c>
+      <c r="D11" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>945</v>
+      </c>
+      <c r="E11" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>255</v>
+      </c>
+      <c r="F11" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H11" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>7560</v>
+      </c>
+      <c r="I11" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>900</v>
+      </c>
+      <c r="J11" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>6660</v>
+      </c>
+      <c r="L11" s="97"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>350</v>
+      </c>
+      <c r="D12" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>200</v>
+      </c>
+      <c r="F12" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H12" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>1275</v>
+      </c>
+      <c r="I12" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>87.5</v>
+      </c>
+      <c r="J12" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>1187.5</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>300</v>
+      </c>
+      <c r="D13" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>245</v>
+      </c>
+      <c r="E13" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>55</v>
+      </c>
+      <c r="F13" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H13" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>1837.5</v>
+      </c>
+      <c r="I13" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>75</v>
+      </c>
+      <c r="J13" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>1762.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>500</v>
+      </c>
+      <c r="D14" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>50</v>
+      </c>
+      <c r="G14" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque Zerado</v>
+      </c>
+      <c r="H14" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>3250</v>
+      </c>
+      <c r="I14" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>250</v>
+      </c>
+      <c r="J14" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>35</v>
+      </c>
+      <c r="E15" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>65</v>
+      </c>
+      <c r="F15" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H15" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>525</v>
+      </c>
+      <c r="I15" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>450</v>
+      </c>
+      <c r="J15" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>350</v>
+      </c>
+      <c r="D16" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>200</v>
+      </c>
+      <c r="F16" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H16" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>750</v>
+      </c>
+      <c r="I16" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>350</v>
+      </c>
+      <c r="J16" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="95">
+        <f>IFERROR(SUMIF(TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Entradas[Quantidade Comprada]),0)</f>
+        <v>400</v>
+      </c>
+      <c r="D17" s="95">
+        <f>IFERROR(SUMIF(TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]],TB_Saídas[Quantidade Vendida]),0)</f>
+        <v>235</v>
+      </c>
+      <c r="E17" s="93">
+        <f>TB_ControleEstoque[[#This Row],[Entradas]]-TB_ControleEstoque[[#This Row],[Saídas ]]</f>
+        <v>165</v>
+      </c>
+      <c r="F17" s="93">
+        <f>INDEX(TB_Produtos[Estoque Mínimo],MATCH(TB_ControleEstoque[[#This Row],[Produto]],TB_Produtos[Produto],0),1)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="71" t="str">
+        <f>IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]&gt;TB_ControleEstoque[[#This Row],[Estoque Mínimo]],"Estoque OK",IF(TB_ControleEstoque[[#This Row],[Saldo em Estoque]]=0,"Estoque Zerado",IF(1,"Repor Estoque",)))</f>
+        <v>Estoque OK</v>
+      </c>
+      <c r="H17" s="94">
+        <f>SUMIFS(TB_Saídas[Valor da Venda],TB_Saídas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>3525</v>
+      </c>
+      <c r="I17" s="94">
+        <f>SUMIFS(TB_Entradas[Valor da Compra],TB_Entradas[Produto],TB_ControleEstoque[[#This Row],[Produto]])</f>
+        <v>3200</v>
+      </c>
+      <c r="J17" s="94">
+        <f>TB_ControleEstoque[[#This Row],[Valor de Venda]]-TB_ControleEstoque[[#This Row],[Custo Total]]</f>
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P9:P10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6:J17">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$B6=$P$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$G6="Estoque Zerado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:J17">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$G5="Repor Estoque"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B17">
+      <formula1>Lista_Produtos</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AU25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF12" sqref="BF12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="10.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.42578125" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:47" s="68" customFormat="1" ht="31.5">
+      <c r="K1" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:47" s="70" customFormat="1" ht="15"/>
+    <row r="3" spans="2:47" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:47" ht="15">
+      <c r="C4" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="162"/>
+      <c r="AB4" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="161"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
+      <c r="AU4" s="162"/>
+    </row>
+    <row r="5" spans="2:47" ht="15">
+      <c r="B5" s="99"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="165"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="164"/>
+      <c r="AO5" s="164"/>
+      <c r="AP5" s="164"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="164"/>
+      <c r="AS5" s="164"/>
+      <c r="AT5" s="164"/>
+      <c r="AU5" s="165"/>
+    </row>
+    <row r="6" spans="2:47" ht="23.25">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="101"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="166" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="166"/>
+      <c r="AP6" s="166"/>
+      <c r="AQ6" s="166"/>
+      <c r="AR6" s="166"/>
+      <c r="AS6" s="166"/>
+      <c r="AT6" s="166"/>
+      <c r="AU6" s="102"/>
+    </row>
+    <row r="7" spans="2:47" ht="15">
+      <c r="B7" s="99"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="159">
+        <f>COUNTA(TB_Saídas[Valores Únicos])-COUNTBLANK(TB_Saídas[Valores Únicos])</f>
+        <v>12</v>
+      </c>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="104"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="140"/>
+      <c r="AK7" s="140"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN7" s="168"/>
+      <c r="AO7" s="168"/>
+      <c r="AP7" s="168"/>
+      <c r="AQ7" s="168"/>
+      <c r="AR7" s="168"/>
+      <c r="AS7" s="168"/>
+      <c r="AT7" s="169"/>
+      <c r="AU7" s="104"/>
+    </row>
+    <row r="8" spans="2:47" ht="15">
+      <c r="B8" s="99"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="104"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="140"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="140"/>
+      <c r="AJ8" s="140"/>
+      <c r="AK8" s="140"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="171"/>
+      <c r="AO8" s="171"/>
+      <c r="AP8" s="171"/>
+      <c r="AQ8" s="171"/>
+      <c r="AR8" s="171"/>
+      <c r="AS8" s="171"/>
+      <c r="AT8" s="172"/>
+      <c r="AU8" s="104"/>
+    </row>
+    <row r="9" spans="2:47" ht="15">
+      <c r="B9" s="99"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="104"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="104"/>
+    </row>
+    <row r="10" spans="2:47" ht="15">
+      <c r="B10" s="99"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="174">
+        <f>SUM(TB_ControleEstoque[Saldo em Estoque])</f>
+        <v>3251</v>
+      </c>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="104"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="140"/>
+      <c r="AJ10" s="140"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="141"/>
+      <c r="AM10" s="159">
+        <f>DSUM(TB_ControleEstoque[#All],TB_ControleEstoque[[#Headers],[Saldo em Estoque]],CriteriosConsultaProduto)</f>
+        <v>55</v>
+      </c>
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="149"/>
+      <c r="AP10" s="149"/>
+      <c r="AQ10" s="149"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="149"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="104"/>
+    </row>
+    <row r="11" spans="2:47" ht="15">
+      <c r="B11" s="99"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="104"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="140"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="140"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="140"/>
+      <c r="AJ11" s="140"/>
+      <c r="AK11" s="140"/>
+      <c r="AL11" s="141"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="152"/>
+      <c r="AO11" s="152"/>
+      <c r="AP11" s="152"/>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="104"/>
+    </row>
+    <row r="12" spans="2:47" ht="15">
+      <c r="B12" s="99"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="104"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="104"/>
+    </row>
+    <row r="13" spans="2:47" ht="15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="148">
+        <f>SUM(TB_ControleEstoque[Valor de Venda])</f>
+        <v>39952.5</v>
+      </c>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="104"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD13" s="140"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="140"/>
+      <c r="AH13" s="140"/>
+      <c r="AI13" s="140"/>
+      <c r="AJ13" s="140"/>
+      <c r="AK13" s="140"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="148">
+        <f>DSUM(TB_ControleEstoque[#All],TB_ControleEstoque[[#Headers],[Valor de Venda]],CriteriosConsultaProduto)</f>
+        <v>1837.5</v>
+      </c>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="154"/>
+      <c r="AR13" s="154"/>
+      <c r="AS13" s="154"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="104"/>
+    </row>
+    <row r="14" spans="2:47" ht="15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="152"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="152"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="104"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="140"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="140"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="140"/>
+      <c r="AJ14" s="140"/>
+      <c r="AK14" s="140"/>
+      <c r="AL14" s="141"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="157"/>
+      <c r="AO14" s="157"/>
+      <c r="AP14" s="157"/>
+      <c r="AQ14" s="157"/>
+      <c r="AR14" s="157"/>
+      <c r="AS14" s="157"/>
+      <c r="AT14" s="158"/>
+      <c r="AU14" s="104"/>
+    </row>
+    <row r="15" spans="2:47" ht="15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="104"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="104"/>
+    </row>
+    <row r="16" spans="2:47" ht="15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="148">
+        <f>SUM(TB_Entradas[Valor da Compra])</f>
+        <v>17487.5</v>
+      </c>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="104"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="140"/>
+      <c r="AJ16" s="140"/>
+      <c r="AK16" s="140"/>
+      <c r="AL16" s="141"/>
+      <c r="AM16" s="148">
+        <f>DSUM(TB_Entradas[#All],TB_Entradas[[#Headers],[Valor da Compra]],CriteriosConsultaProduto)</f>
+        <v>75</v>
+      </c>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
+      <c r="AQ16" s="154"/>
+      <c r="AR16" s="154"/>
+      <c r="AS16" s="154"/>
+      <c r="AT16" s="155"/>
+      <c r="AU16" s="104"/>
+    </row>
+    <row r="17" spans="2:47" ht="15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="152"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="152"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="104"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="140"/>
+      <c r="AD17" s="140"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="140"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="140"/>
+      <c r="AJ17" s="140"/>
+      <c r="AK17" s="140"/>
+      <c r="AL17" s="141"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="157"/>
+      <c r="AO17" s="157"/>
+      <c r="AP17" s="157"/>
+      <c r="AQ17" s="157"/>
+      <c r="AR17" s="157"/>
+      <c r="AS17" s="157"/>
+      <c r="AT17" s="158"/>
+      <c r="AU17" s="104"/>
+    </row>
+    <row r="18" spans="2:47" ht="15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="104"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="105"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="105"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="105"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="104"/>
+    </row>
+    <row r="19" spans="2:47" ht="15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="148">
+        <f>N13-N16</f>
+        <v>22465</v>
+      </c>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="104"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="140" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="140"/>
+      <c r="AJ19" s="140"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="141"/>
+      <c r="AM19" s="148">
+        <f>AM13-AM16</f>
+        <v>1762.5</v>
+      </c>
+      <c r="AN19" s="149"/>
+      <c r="AO19" s="149"/>
+      <c r="AP19" s="149"/>
+      <c r="AQ19" s="149"/>
+      <c r="AR19" s="149"/>
+      <c r="AS19" s="149"/>
+      <c r="AT19" s="150"/>
+      <c r="AU19" s="104"/>
+    </row>
+    <row r="20" spans="2:47" ht="15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="152"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="104"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="140"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="140"/>
+      <c r="AH20" s="140"/>
+      <c r="AI20" s="140"/>
+      <c r="AJ20" s="140"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="141"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="152"/>
+      <c r="AO20" s="152"/>
+      <c r="AP20" s="152"/>
+      <c r="AQ20" s="152"/>
+      <c r="AR20" s="152"/>
+      <c r="AS20" s="152"/>
+      <c r="AT20" s="153"/>
+      <c r="AU20" s="104"/>
+    </row>
+    <row r="21" spans="2:47" ht="15">
+      <c r="B21" s="99"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="104"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="105"/>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="105"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="104"/>
+    </row>
+    <row r="22" spans="2:47" ht="15">
+      <c r="B22" s="99"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="142">
+        <f>IFERROR(N19/N16,0)</f>
+        <v>1.2846318799142245</v>
+      </c>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="104"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD22" s="140"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="140"/>
+      <c r="AH22" s="140"/>
+      <c r="AI22" s="140"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="141"/>
+      <c r="AM22" s="142">
+        <f>IFERROR(AM19/AM16,0)</f>
+        <v>23.5</v>
+      </c>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="143"/>
+      <c r="AQ22" s="143"/>
+      <c r="AR22" s="143"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="104"/>
+    </row>
+    <row r="23" spans="2:47" ht="15">
+      <c r="B23" s="99"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="104"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="140"/>
+      <c r="AD23" s="140"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="140"/>
+      <c r="AI23" s="140"/>
+      <c r="AJ23" s="140"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="141"/>
+      <c r="AM23" s="145"/>
+      <c r="AN23" s="146"/>
+      <c r="AO23" s="146"/>
+      <c r="AP23" s="146"/>
+      <c r="AQ23" s="146"/>
+      <c r="AR23" s="146"/>
+      <c r="AS23" s="146"/>
+      <c r="AT23" s="147"/>
+      <c r="AU23" s="104"/>
+    </row>
+    <row r="24" spans="2:47" ht="15.75" thickBot="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="108"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="107"/>
+      <c r="AK24" s="107"/>
+      <c r="AL24" s="107"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="108"/>
+    </row>
+    <row r="25" spans="2:47" ht="15">
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="99"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="99"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="99"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="99"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="27">
+    <mergeCell ref="C4:V5"/>
+    <mergeCell ref="AB4:AU5"/>
+    <mergeCell ref="AM6:AT6"/>
+    <mergeCell ref="D7:M8"/>
+    <mergeCell ref="N7:U8"/>
+    <mergeCell ref="AC7:AL8"/>
+    <mergeCell ref="AM7:AT8"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="N10:U11"/>
+    <mergeCell ref="AC10:AL11"/>
+    <mergeCell ref="AM10:AT11"/>
+    <mergeCell ref="D13:M14"/>
+    <mergeCell ref="N13:U14"/>
+    <mergeCell ref="AC13:AL14"/>
+    <mergeCell ref="AM13:AT14"/>
+    <mergeCell ref="D22:M23"/>
+    <mergeCell ref="N22:U23"/>
+    <mergeCell ref="AC22:AL23"/>
+    <mergeCell ref="AM22:AT23"/>
+    <mergeCell ref="D16:M17"/>
+    <mergeCell ref="N16:U17"/>
+    <mergeCell ref="AC16:AL17"/>
+    <mergeCell ref="AM16:AT17"/>
+    <mergeCell ref="D19:M20"/>
+    <mergeCell ref="N19:U20"/>
+    <mergeCell ref="AC19:AL20"/>
+    <mergeCell ref="AM19:AT20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM7:AT8">
+      <formula1>Lista_Produtos</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>